--- a/Genel Görevlendirme.xlsx
+++ b/Genel Görevlendirme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>EKİP ÇALIŞANLARI GÖREVLERİ</t>
   </si>
@@ -78,9 +78,6 @@
     <t>4.HAFTA (12.03.2018 – 18.03.2018)</t>
   </si>
   <si>
-    <t>Projenin muhtemel hatalarını öngörüp şimdiden çözüm bulmaya başladı.</t>
-  </si>
-  <si>
     <t>Android ile Arduino arasındaki bağlantıyı uygulama aracılığıyla kurdu ve android cihazdan komut yollayarak ses çıkmasını sağladı.</t>
   </si>
   <si>
@@ -91,6 +88,24 @@
   </si>
   <si>
     <t>Projemizde çıkan sorunlara pratik çözümler bulup takım arkadaşlarının yaptıklarını analiz etti. Kodlama ve arduino donanımı ile ilgili araştırmalar yaptı.</t>
+  </si>
+  <si>
+    <t>5.HAFTA (19.03.2018 – 25.03.2018)</t>
+  </si>
+  <si>
+    <t>Web sitemize ilk bakışta ana projenin fikrini anlatmak için slider hazırladı ve alan adı alıp yayınladı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projemizin ilerleyişini olumlu ve olumsuz yönlerini inceleyip karşımıza çıkacak sorunlara pratik çözümler sundu. </t>
+  </si>
+  <si>
+    <t>Android’te ışık için gerekli komut gönderme kodlarını yazdı.</t>
+  </si>
+  <si>
+    <t>Arduino ile 5 mm mavi led bağlantısı yaptı. Led’in yanması için arduino kodlarını yazdı.</t>
+  </si>
+  <si>
+    <t>Projenin muhtemel hatalarını öngörüp şimdiden çözüm bulmaya başladı ve android arduino’nun yazılım tarafında yardımcı oldu.</t>
   </si>
 </sst>
 </file>
@@ -475,7 +490,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +499,8 @@
     <col min="2" max="3" width="30.21875" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -505,6 +521,9 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -520,7 +539,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
@@ -537,7 +559,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -554,7 +579,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -568,10 +596,13 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Genel Görevlendirme.xlsx
+++ b/Genel Görevlendirme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>EKİP ÇALIŞANLARI GÖREVLERİ</t>
   </si>
@@ -78,6 +78,9 @@
     <t>4.HAFTA (12.03.2018 – 18.03.2018)</t>
   </si>
   <si>
+    <t>Projenin muhtemel hatalarını öngörüp şimdiden çözüm bulmaya başladı.</t>
+  </si>
+  <si>
     <t>Android ile Arduino arasındaki bağlantıyı uygulama aracılığıyla kurdu ve android cihazdan komut yollayarak ses çıkmasını sağladı.</t>
   </si>
   <si>
@@ -96,16 +99,43 @@
     <t>Web sitemize ilk bakışta ana projenin fikrini anlatmak için slider hazırladı ve alan adı alıp yayınladı.</t>
   </si>
   <si>
+    <t>Arduino ile 5 mm mavi led bağlantısı yaptı.Led’in yanması için arduino kodlarını yazdı.</t>
+  </si>
+  <si>
+    <t>Android’te ışık için komut gönderme kodlarını entegre edildi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Projemizin ilerleyişini olumlu ve olumsuz yönlerini inceleyip karşımıza çıkacak sorunlara pratik çözümler sundu. </t>
   </si>
   <si>
-    <t>Android’te ışık için gerekli komut gönderme kodlarını yazdı.</t>
-  </si>
-  <si>
-    <t>Arduino ile 5 mm mavi led bağlantısı yaptı. Led’in yanması için arduino kodlarını yazdı.</t>
-  </si>
-  <si>
-    <t>Projenin muhtemel hatalarını öngörüp şimdiden çözüm bulmaya başladı ve android arduino’nun yazılım tarafında yardımcı oldu.</t>
+    <t>6.HAFTA (09.04.2018 – 15.04.2018)</t>
+  </si>
+  <si>
+    <t>7.HAFTA (16.04.2018 – 22.04.2018)</t>
+  </si>
+  <si>
+    <t>Ekip Arkadaşlarına minyatür Arduino ile neler yapabileceği hakkında fikirler sundu ve Web sitesi’ne Aksesuar sayfası ekledi.</t>
+  </si>
+  <si>
+    <t>Minyatür Arduino ile daha rahat ve kullanışlı bir cihaz yaptı ve Arduino kodlarında güncellemeler yaptı.</t>
+  </si>
+  <si>
+    <t>Android yazılımında Minyatür Arduino için kodlarda güncellemeler yaptı.</t>
+  </si>
+  <si>
+    <t>Projemizin daha gösterişli olup ilgi çekmesi için çalışmalar yaptı. Rapor dokümanlarını hazırladı.</t>
+  </si>
+  <si>
+    <t>Minyatür Arduino’ya geçerken eklenilecek yenilikleri araştırdı.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino bilgisayara bağlı kalmaması için güç kaynağı sağlayarak daha taşınabilir olmasını sağladı ve arkaplanda Minyatür Arduino için çalışmalar yaptı. </t>
+  </si>
+  <si>
+    <t>Minyatür Arduino için gerekli mobil uygulama kodlarını yazmaya başladı.</t>
+  </si>
+  <si>
+    <t>Final sunumu için hazırlıklara başladı.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,15 +530,17 @@
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -522,10 +554,17 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,13 +578,20 @@
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -559,13 +605,20 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -579,13 +632,20 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,14 +656,21 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Genel Görevlendirme.xlsx
+++ b/Genel Görevlendirme.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>EKİP ÇALIŞANLARI GÖREVLERİ</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Final sunumu için hazırlıklara başladı.</t>
+  </si>
+  <si>
+    <t>8.HAFTA (23.04.2018 – 29.04.2018)</t>
+  </si>
+  <si>
+    <t>Mobil uygulamanın görsel arayüzünü tasarladı.</t>
+  </si>
+  <si>
+    <t>Arduino’yu ezilmelere karşı bir korumak için kumanda şeklinde bir kabın içerisine yerleştirdi ve Arduino çalarken sadece üzerindeki butonla sesini kapatacak kodları Arduino tarafında yazdı.</t>
+  </si>
+  <si>
+    <t>Arduino çalarken sadece üzerindeki butonla sesini kapatacak kodları Android tarafında yazdı.</t>
+  </si>
+  <si>
+    <t>Rapor dokümanlarını hazırladı ve final sunumu için çalışmalar yaptı.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +577,9 @@
       <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -589,7 +606,9 @@
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -616,7 +635,9 @@
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -643,7 +664,9 @@
       <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -670,7 +693,9 @@
       <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
